--- a/Matlab files/Acacia/Acacia dimensions.xlsx
+++ b/Matlab files/Acacia/Acacia dimensions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyubo\Desktop\Master final thesis\Masters-Final-Thesis\Matlab files\Acacia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19140574-1FBF-44C4-BCC3-32CF07D1CEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688E8624-B57B-43A4-BBB6-B0D77465797D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -640,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:K73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -738,6 +738,10 @@
       </c>
       <c r="H5" s="17"/>
       <c r="I5" s="16"/>
+      <c r="K5" t="str">
+        <f>_xlfn.TEXTJOIN(";",TRUE,F3:F37)</f>
+        <v>33.13;29.3;31.49;32.38;30.63;29.62;30.77;32.93;33.09;33.24;32.65;33.11;32.46;33;32.05;32.47;31.9;31.42;32.43;33.03;34.18;33.6;33.52;35.11;28.55;33.54;34.95;31.88;30.36;32.17;30.97;31.35;34;28.89;31.84</v>
+      </c>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C6">
